--- a/homework1/build-Tcptest_client-Desktop_Qt_5_9_2_MinGW_32bit-Debug/log.xlsx
+++ b/homework1/build-Tcptest_client-Desktop_Qt_5_9_2_MinGW_32bit-Debug/log.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
   <si>
-    <t>3</t>
+    <t>2</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
 </sst>
 </file>
@@ -359,30 +356,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/homework1/build-Tcptest_client-Desktop_Qt_5_9_2_MinGW_32bit-Debug/log.xlsx
+++ b/homework1/build-Tcptest_client-Desktop_Qt_5_9_2_MinGW_32bit-Debug/log.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
   <si>
     <t>2</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -364,7 +367,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">

--- a/homework1/build-Tcptest_client-Desktop_Qt_5_9_2_MinGW_32bit-Debug/log.xlsx
+++ b/homework1/build-Tcptest_client-Desktop_Qt_5_9_2_MinGW_32bit-Debug/log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
   <si>
     <t>2</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>319</t>
   </si>
 </sst>
 </file>
@@ -367,12 +373,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
